--- a/Separa unidades/Unidades/Pimenta.xlsx
+++ b/Separa unidades/Unidades/Pimenta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="24">
   <si>
     <t>ID DISP.</t>
   </si>
@@ -34,7 +34,10 @@
     <t>ID. PACIENTE</t>
   </si>
   <si>
-    <t>14/04/2021</t>
+    <t>Situação</t>
+  </si>
+  <si>
+    <t>Foi atendido</t>
   </si>
   <si>
     <t>03/05/2021</t>
@@ -64,7 +67,25 @@
     <t>22/06/2021</t>
   </si>
   <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>06/07/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNIDADE BASICA ARCHIMEDES </t>
+  </si>
+  <si>
+    <t>PACIENTE SEM SUSPEITA</t>
+  </si>
+  <si>
+    <t>PACIENTE COM SUSPEITA EM ABERTO</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>SIM</t>
   </si>
 </sst>
 </file>
@@ -422,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,59 +468,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>1866298</v>
+        <v>1887760</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2056062</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>49683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>165508</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>1887760</v>
+        <v>1890863</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2056062</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>165508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>106811</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>1890863</v>
+        <v>1900253</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2056062</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -507,259 +546,337 @@
       <c r="F4">
         <v>106811</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>1900253</v>
+        <v>1902513</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2056062</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>106811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>23543</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>1902513</v>
+        <v>1902280</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>2056062</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>23543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>28364</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>1902280</v>
+        <v>1916017</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>2056062</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>28364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105304</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>1916017</v>
+        <v>1935146</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>2056062</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>105304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>314064</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>1935149</v>
+        <v>1935132</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>2056062</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>266369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>290752</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>1935140</v>
+        <v>1935106</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>2056062</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>97306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>2931</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>1935132</v>
+        <v>1935113</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>2056062</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>290752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>29375</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
-        <v>1935137</v>
+        <v>1934786</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2056062</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>83164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>4805</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>1935126</v>
+        <v>1935109</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>2056062</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>42650</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>85335</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
-        <v>1935129</v>
+        <v>1935111</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>2056062</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>164681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>75966</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>1935120</v>
+        <v>1935115</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>2056062</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>160509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>23794</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>1935124</v>
+        <v>1935118</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>2056062</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>55462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>287005</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1935117</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>2056062</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -767,245 +884,375 @@
       <c r="F17">
         <v>333079</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>1935118</v>
+        <v>1935124</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>2056062</v>
       </c>
       <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>55462</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1935120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>2056062</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>160509</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1935129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>2056062</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>164681</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1935126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>2056062</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>42650</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1934589</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>2056062</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>186441</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1935140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>2056062</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>97306</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>1935149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>2056062</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>266369</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>1935137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>2056062</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>83164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>1943404</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>2056062</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>223939</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>1946149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>2056062</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>106811</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>1956170</v>
+      </c>
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>287005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>1935115</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>2056062</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>23794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>1935111</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>2056062</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>75966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>1935109</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>2056062</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>85335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>1934786</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>2056062</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>4805</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>1935113</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>2056062</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>29375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>1935106</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>2056062</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>1935146</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>2056062</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>314064</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>1934589</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>2056062</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>186441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>1943404</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27">
-        <v>2056062</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>223939</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>1946149</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
       <c r="C28">
         <v>2056062</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>106811</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>322478</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
-        <v>1956170</v>
+        <v>1971560</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>2056062</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>322478</v>
+        <v>15645</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>1971651</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>2056062</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>313763</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>1974055</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>2056062</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>178625</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Separa unidades/Unidades/Pimenta.xlsx
+++ b/Separa unidades/Unidades/Pimenta.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Pimenta" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Código</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Situação</t>
   </si>
   <si>
-    <t>CNES</t>
-  </si>
-  <si>
     <t>Unidade</t>
   </si>
   <si>
@@ -91,19 +88,13 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>BRENDA VICTORIA BENTO RODRIGUES</t>
-  </si>
-  <si>
-    <t>GABRIEL SANTOS SOUZA</t>
-  </si>
-  <si>
-    <t>CLARISSE DOS SANTOS SOUSA</t>
-  </si>
-  <si>
-    <t>PEDRO HENRIQUE MARTINS CACIQUE</t>
-  </si>
-  <si>
-    <t>HELENA MARIA BORGES GIDRÃO</t>
+    <t>FRANCIELLE CRISTINA PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>MIGUEL HENRIQUE DUARTE ROSA</t>
+  </si>
+  <si>
+    <t>MAYTTÊ SOFIA DUARTE DE SOUZA</t>
   </si>
   <si>
     <t>F</t>
@@ -127,70 +118,34 @@
     <t>BARRETOS - SP</t>
   </si>
   <si>
-    <t>AVENIDA</t>
-  </si>
-  <si>
     <t>RUA</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>DOUTOR URBANO DE BRITO</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>01625</t>
-  </si>
-  <si>
-    <t>02235</t>
-  </si>
-  <si>
-    <t>979</t>
-  </si>
-  <si>
-    <t>02256</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>BOM JESUS</t>
-  </si>
-  <si>
-    <t>HENRIQUETA</t>
-  </si>
-  <si>
-    <t>NOVA CLEMENTINA</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
-  </si>
-  <si>
-    <t>8128-0874</t>
-  </si>
-  <si>
-    <t>8160-0558</t>
-  </si>
-  <si>
-    <t>8815-4116</t>
-  </si>
-  <si>
-    <t>9713-9599</t>
-  </si>
-  <si>
-    <t>98815-4116</t>
-  </si>
-  <si>
-    <t>98803-7472</t>
-  </si>
-  <si>
-    <t>98161-0914</t>
+    <t>VOLUNTARIO UMBURANA</t>
+  </si>
+  <si>
+    <t>DOUTOR ANTONIO OLIMPIO</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>981</t>
+  </si>
+  <si>
+    <t>PIMENTA</t>
+  </si>
+  <si>
+    <t>3324-2316</t>
+  </si>
+  <si>
+    <t>8825-5016</t>
+  </si>
+  <si>
+    <t>98809-2556</t>
+  </si>
+  <si>
+    <t>99188-3921</t>
   </si>
 </sst>
 </file>
@@ -552,13 +507,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,363 +586,212 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2">
+        <v>546634</v>
+      </c>
+      <c r="B2">
+        <v>30838</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
+      <c r="D2">
+        <v>46640578816</v>
+      </c>
+      <c r="E2">
+        <v>702602716708946</v>
+      </c>
+      <c r="F2" s="2">
+        <v>33530</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44388</v>
+      </c>
+      <c r="K2" s="2">
+        <v>44390</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44390</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2">
-        <v>538055</v>
-      </c>
-      <c r="B2">
-        <v>156553</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>544320</v>
+      </c>
+      <c r="B3">
+        <v>237321</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="E2">
-        <v>898002387366788</v>
-      </c>
-      <c r="F2" s="2">
-        <v>40488</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E3">
+        <v>898004604264904</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42069</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J3" s="2">
+        <v>44386</v>
+      </c>
+      <c r="K3" s="2">
+        <v>44389</v>
+      </c>
+      <c r="L3" s="2">
+        <v>44389</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P3" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2">
-        <v>44378</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44383</v>
-      </c>
-      <c r="L2" s="2">
-        <v>44383</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q3" t="s">
         <v>34</v>
       </c>
-      <c r="O2">
-        <v>2056062</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R3" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
         <v>39</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U3">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3">
+        <v>17</v>
+      </c>
+      <c r="X3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>544336</v>
+      </c>
+      <c r="B4">
+        <v>329301</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>59196784881</v>
+      </c>
+      <c r="E4">
+        <v>702608773384149</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44250</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44386</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44389</v>
+      </c>
+      <c r="L4" s="2">
+        <v>44389</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>17</v>
+      </c>
+      <c r="X4" t="s">
         <v>43</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2">
-        <v>17</v>
-      </c>
-      <c r="W2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2">
-        <v>17</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3">
-        <v>537494</v>
-      </c>
-      <c r="B3">
-        <v>186134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>898003715761247</v>
-      </c>
-      <c r="F3" s="2">
-        <v>40990</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44381</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44383</v>
-      </c>
-      <c r="L3" s="2">
-        <v>44383</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3">
-        <v>2056062</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3">
-        <v>17</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3">
-        <v>17</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4">
-        <v>538338</v>
-      </c>
-      <c r="B4">
-        <v>273877</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>55796552821</v>
-      </c>
-      <c r="E4">
-        <v>704305548847591</v>
-      </c>
-      <c r="F4" s="2">
-        <v>37369</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="2">
-        <v>44376</v>
-      </c>
-      <c r="K4" s="2">
-        <v>44383</v>
-      </c>
-      <c r="L4" s="2">
-        <v>44383</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4">
-        <v>2056062</v>
-      </c>
-      <c r="P4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4">
-        <v>17</v>
-      </c>
-      <c r="W4" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5">
-        <v>534937</v>
-      </c>
-      <c r="B5">
-        <v>323404</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>58877778857</v>
-      </c>
-      <c r="E5">
-        <v>702507313603831</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44121</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="2">
-        <v>44380</v>
-      </c>
-      <c r="K5" s="2">
-        <v>44382</v>
-      </c>
-      <c r="L5" s="2">
-        <v>44382</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5">
-        <v>2056062</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6">
-        <v>531340</v>
-      </c>
-      <c r="B6">
-        <v>336083</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>26290766600</v>
-      </c>
-      <c r="E6">
-        <v>702603200885748</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20420</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2">
-        <v>44378</v>
-      </c>
-      <c r="L6" s="2">
-        <v>44378</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6">
-        <v>2056062</v>
-      </c>
-      <c r="P6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>17</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
